--- a/jslx-test/src/main/resources/templates/REPORT_ROW_HIDE.xlsx
+++ b/jslx-test/src/main/resources/templates/REPORT_ROW_HIDE.xlsx
@@ -5,17 +5,24 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\02_TestDemo\Jslx\src\main\resources\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\02_TestDemo\jslx-test\src\main\resources\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1B7D14D-73E8-44FE-A851-8551975BD414}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D00266B1-9E44-414B-B946-1FB4BDB4BED6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2620" yWindow="2620" windowWidth="14400" windowHeight="7360" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="REPORT_ROW_HIDE" sheetId="1" r:id="rId1"/>
+    <sheet name="工作表1" sheetId="1" r:id="rId1"/>
+    <sheet name="WWWW" sheetId="2" r:id="rId2"/>
+    <sheet name="SSSS" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="CalcA1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -47,8 +54,21 @@
             <family val="2"/>
             <charset val="136"/>
           </rPr>
-          <t>jx:each(items=”peoples” var=”people” lastCell=”D4”)
-jx:autoRowHeight(lastCell="D4")</t>
+          <t>jx:each(items=”peoples” var=”people” lastCell=”C4”)
+jx:autoRowHeight(lastCell ="C4")</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B4" authorId="0" shapeId="0" xr:uid="{D171F3E5-51FE-47A9-95B0-CCC6617CA538}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="136"/>
+          </rPr>
+          <t>jx:hiddenDef(condition="people.age==12" hidTag="col" lastCell="C4")</t>
         </r>
       </text>
     </comment>
@@ -57,18 +77,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>${people.name}</t>
   </si>
   <si>
+    <t>${people.sex}</t>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Age</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sex</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>${people.age}</t>
-  </si>
-  <si>
-    <t>${people.sex}</t>
-  </si>
-  <si>
-    <t>REPORT_ROW_HIDE</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -116,12 +145,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
@@ -251,10 +277,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -263,38 +289,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
+      <c r="A1" s="3"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>2</v>
-      </c>
     </row>
-    <row r="5" spans="1:3" ht="92" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="2"/>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -309,4 +331,35 @@
   </headerFooter>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{115EF504-5A80-4011-9A8B-263223B2FF7D}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1E959B6-BD54-45D8-9898-C4FA1711A602}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>